--- a/data/pca/factorExposure/factorExposure_2010-02-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-02-26.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,9 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +714,33 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01673624125160869</v>
+        <v>0.01698709722189014</v>
       </c>
       <c r="C2">
-        <v>0.0001233666422621284</v>
+        <v>-0.0009543284739678069</v>
       </c>
       <c r="D2">
-        <v>-0.005920512457289496</v>
+        <v>-0.007360016019456936</v>
       </c>
       <c r="E2">
-        <v>-0.02192490033883561</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>0.000249007517397647</v>
+      </c>
+      <c r="F2">
+        <v>0.009158213156428853</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +754,33 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.1301076148542961</v>
+        <v>0.09347145885210432</v>
       </c>
       <c r="C4">
-        <v>-0.05126399358564972</v>
+        <v>-0.01568537076845554</v>
       </c>
       <c r="D4">
-        <v>-0.03994621964278822</v>
+        <v>-0.08402884764338266</v>
       </c>
       <c r="E4">
-        <v>0.003486332506411112</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>0.02997748533332166</v>
+      </c>
+      <c r="F4">
+        <v>-0.02873842176167024</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +794,233 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1146822509189935</v>
+        <v>0.1561099737391289</v>
       </c>
       <c r="C6">
-        <v>0.02129211334924864</v>
+        <v>-0.02465196529744528</v>
       </c>
       <c r="D6">
-        <v>-0.008376670117332197</v>
+        <v>0.02246614903319065</v>
       </c>
       <c r="E6">
-        <v>-0.01752374558184028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>0.01124868074039389</v>
+      </c>
+      <c r="F6">
+        <v>-0.05224655687958199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.078099787467574</v>
+        <v>0.059535994948226</v>
       </c>
       <c r="C7">
-        <v>-0.02795037019675404</v>
+        <v>0.001028107141156773</v>
       </c>
       <c r="D7">
-        <v>-0.05227233261837881</v>
+        <v>-0.05234732764396485</v>
       </c>
       <c r="E7">
-        <v>-0.04112150617515794</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0133394458368088</v>
+      </c>
+      <c r="F7">
+        <v>-0.0435510378901126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.05427974233818648</v>
+        <v>0.05786897952484405</v>
       </c>
       <c r="C8">
-        <v>-0.009802803438262616</v>
+        <v>0.01330437302178513</v>
       </c>
       <c r="D8">
-        <v>-0.02154901685447065</v>
+        <v>-0.0309167393612378</v>
       </c>
       <c r="E8">
-        <v>-0.02219785024506378</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>0.01559095135051334</v>
+      </c>
+      <c r="F8">
+        <v>0.03058343871387749</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.09960486873803143</v>
+        <v>0.07155199093011877</v>
       </c>
       <c r="C9">
-        <v>-0.051082794642193</v>
+        <v>-0.01163169885046617</v>
       </c>
       <c r="D9">
-        <v>-0.01684307816709811</v>
+        <v>-0.08455483009876812</v>
       </c>
       <c r="E9">
-        <v>-0.01193800866380993</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>0.02420548668302265</v>
+      </c>
+      <c r="F9">
+        <v>-0.04870990175512418</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.06785222336112287</v>
+        <v>0.09477389518073748</v>
       </c>
       <c r="C10">
-        <v>0.1754858363888533</v>
+        <v>-0.01828533832027038</v>
       </c>
       <c r="D10">
-        <v>0.07022450371846442</v>
+        <v>0.1699774809767915</v>
       </c>
       <c r="E10">
-        <v>-0.02124146567383749</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.0385050152357334</v>
+      </c>
+      <c r="F10">
+        <v>0.05711586735998517</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09860721688512533</v>
+        <v>0.08781438988333851</v>
       </c>
       <c r="C11">
-        <v>-0.05074157094235316</v>
+        <v>-0.01141387528530466</v>
       </c>
       <c r="D11">
-        <v>-0.05797050953205489</v>
+        <v>-0.116724072746952</v>
       </c>
       <c r="E11">
-        <v>-0.04499338077142639</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>0.04746599619210652</v>
+      </c>
+      <c r="F11">
+        <v>-0.02001658889333676</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.1019712286576856</v>
+        <v>0.09233223367168808</v>
       </c>
       <c r="C12">
-        <v>-0.05727706022324124</v>
+        <v>-0.008862349992420056</v>
       </c>
       <c r="D12">
-        <v>-0.06546481553366156</v>
+        <v>-0.1278884198893205</v>
       </c>
       <c r="E12">
-        <v>-0.0409066477627921</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.04794172616118951</v>
+      </c>
+      <c r="F12">
+        <v>-0.01875494246453663</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04476364413312059</v>
+        <v>0.04375321558402677</v>
       </c>
       <c r="C13">
-        <v>-0.02589649673409722</v>
+        <v>-0.003988627299318809</v>
       </c>
       <c r="D13">
-        <v>0.01817410924886449</v>
+        <v>-0.0485939234493805</v>
       </c>
       <c r="E13">
-        <v>0.002153996952361471</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.01250575407164315</v>
+      </c>
+      <c r="F13">
+        <v>-0.007827718154342673</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.02708978953378691</v>
+        <v>0.02275474669148931</v>
       </c>
       <c r="C14">
-        <v>-0.004083300731273058</v>
+        <v>-0.01414301500976402</v>
       </c>
       <c r="D14">
-        <v>-0.005707345512685631</v>
+        <v>-0.0321673228074358</v>
       </c>
       <c r="E14">
-        <v>-0.004336508008080241</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.01759931607083806</v>
+      </c>
+      <c r="F14">
+        <v>-0.01772907159478498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03135446535107742</v>
+        <v>0.0311097374754419</v>
       </c>
       <c r="C15">
-        <v>-0.02643051102222002</v>
+        <v>-0.005227789601138596</v>
       </c>
       <c r="D15">
-        <v>-0.00238110992322914</v>
+        <v>-0.04495314617387466</v>
       </c>
       <c r="E15">
-        <v>-0.01917851908762168</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>0.007434427407994293</v>
+      </c>
+      <c r="F15">
+        <v>-0.02797215594173386</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.1024644792382758</v>
+        <v>0.07289544264759928</v>
       </c>
       <c r="C16">
-        <v>-0.04355016189588615</v>
+        <v>-0.002848384801791599</v>
       </c>
       <c r="D16">
-        <v>-0.06669361949033784</v>
+        <v>-0.123863547752207</v>
       </c>
       <c r="E16">
-        <v>-0.04824829961818786</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>0.06313013894835753</v>
+      </c>
+      <c r="F16">
+        <v>-0.02366162330016265</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,27 +1034,33 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>0.02583112735299829</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.003984965662873789</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02204347736649567</v>
       </c>
       <c r="E18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+        <v>-0.004482842010254412</v>
+      </c>
+      <c r="F18">
+        <v>0.01497132406789119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1017,129 +1074,153 @@
       <c r="E19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.05532850453758131</v>
+        <v>0.06065071468111394</v>
       </c>
       <c r="C20">
-        <v>-0.01834468336839119</v>
+        <v>-0.0004033766799759311</v>
       </c>
       <c r="D20">
-        <v>-0.04482190627986477</v>
+        <v>-0.07662573956586831</v>
       </c>
       <c r="E20">
-        <v>0.005090384231723457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>0.05580918073947373</v>
+      </c>
+      <c r="F20">
+        <v>-0.02340816561560497</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.02097458340827156</v>
+        <v>0.03858438229909664</v>
       </c>
       <c r="C21">
-        <v>0.006539123335210969</v>
+        <v>-0.006667536519687291</v>
       </c>
       <c r="D21">
-        <v>-0.001681346345549862</v>
+        <v>-0.03538836224723851</v>
       </c>
       <c r="E21">
-        <v>0.0311286095031453</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.007849052928986581</v>
+      </c>
+      <c r="F21">
+        <v>0.02166323347693222</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.02471499522627578</v>
+        <v>0.04373012096583002</v>
       </c>
       <c r="C22">
-        <v>0.04399214511173392</v>
+        <v>-0.001224773071684737</v>
       </c>
       <c r="D22">
-        <v>0.03838835878929217</v>
+        <v>-0.001645478972336323</v>
       </c>
       <c r="E22">
-        <v>-0.04564534874344105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>0.02793232043406888</v>
+      </c>
+      <c r="F22">
+        <v>0.01154995821302699</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.0248159891275891</v>
+        <v>0.04376373147562459</v>
       </c>
       <c r="C23">
-        <v>0.04392923579593958</v>
+        <v>-0.001245606707651817</v>
       </c>
       <c r="D23">
-        <v>0.0379138672308627</v>
+        <v>-0.001737088193388306</v>
       </c>
       <c r="E23">
-        <v>-0.04748952649523024</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>0.02824173329690869</v>
+      </c>
+      <c r="F23">
+        <v>0.01101103827819414</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.1053600018285138</v>
+        <v>0.07950963482048332</v>
       </c>
       <c r="C24">
-        <v>-0.04436791970344772</v>
+        <v>-0.002985997731649007</v>
       </c>
       <c r="D24">
-        <v>-0.06307521518410183</v>
+        <v>-0.1200047470986498</v>
       </c>
       <c r="E24">
-        <v>-0.03904841367040641</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.05059218291217746</v>
+      </c>
+      <c r="F24">
+        <v>-0.02277779031935831</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.1079480115574528</v>
+        <v>0.08494676551119588</v>
       </c>
       <c r="C25">
-        <v>-0.04033783814273137</v>
+        <v>-0.00522622016865929</v>
       </c>
       <c r="D25">
-        <v>-0.05940781009218494</v>
+        <v>-0.1088290177018501</v>
       </c>
       <c r="E25">
-        <v>-0.04704508428199974</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.0332616374695856</v>
+      </c>
+      <c r="F25">
+        <v>-0.02600926909302905</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.04323073970990221</v>
+        <v>0.0555992197179682</v>
       </c>
       <c r="C26">
-        <v>0.01377011553983967</v>
+        <v>-0.01437447736493148</v>
       </c>
       <c r="D26">
-        <v>-0.02114972021952527</v>
+        <v>-0.04219688580617422</v>
       </c>
       <c r="E26">
-        <v>-0.007288687996457865</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>0.02578278218900116</v>
+      </c>
+      <c r="F26">
+        <v>0.01074134286643926</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1234,193 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.06161508574772191</v>
+        <v>0.1429500287710237</v>
       </c>
       <c r="C28">
-        <v>0.2547119005251937</v>
+        <v>-0.01721878185318037</v>
       </c>
       <c r="D28">
-        <v>0.1741467249191801</v>
+        <v>0.2654574347527974</v>
       </c>
       <c r="E28">
-        <v>-0.05132210856571689</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>-0.06877792029317385</v>
+      </c>
+      <c r="F28">
+        <v>-0.01902443001099314</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02862183713286181</v>
+        <v>0.02705667306337549</v>
       </c>
       <c r="C29">
-        <v>-0.00779830076310474</v>
+        <v>-0.008371979180941905</v>
       </c>
       <c r="D29">
-        <v>0.003488662346797677</v>
+        <v>-0.03135899458238157</v>
       </c>
       <c r="E29">
-        <v>-0.006697370270591844</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.01144984623110524</v>
+      </c>
+      <c r="F29">
+        <v>0.01211222050347256</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.1233501078334828</v>
+        <v>0.06165921946423717</v>
       </c>
       <c r="C30">
-        <v>-0.067751072854106</v>
+        <v>-0.00447805614357286</v>
       </c>
       <c r="D30">
-        <v>-0.03429854186749526</v>
+        <v>-0.08612900493722991</v>
       </c>
       <c r="E30">
-        <v>-0.01588579901993326</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>0.02382547100517872</v>
+      </c>
+      <c r="F30">
+        <v>-0.09222061608875327</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.03166280084420456</v>
+        <v>0.04904175453148136</v>
       </c>
       <c r="C31">
-        <v>-0.01270750606489541</v>
+        <v>-0.01500761772318285</v>
       </c>
       <c r="D31">
-        <v>-0.02664685075724706</v>
+        <v>-0.0263416246071192</v>
       </c>
       <c r="E31">
-        <v>-0.01608488299499233</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.02732297677772592</v>
+      </c>
+      <c r="F31">
+        <v>0.005951627849959913</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.06178578458313867</v>
+        <v>0.04827955227163631</v>
       </c>
       <c r="C32">
-        <v>0.001704936280308903</v>
+        <v>0.0007190373219636923</v>
       </c>
       <c r="D32">
-        <v>-0.0306976455331161</v>
+        <v>-0.03390266101832776</v>
       </c>
       <c r="E32">
-        <v>-0.0007095803752542935</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.03056212392241319</v>
+      </c>
+      <c r="F32">
+        <v>-0.006481493720145932</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.1103592525186247</v>
+        <v>0.08959047246583959</v>
       </c>
       <c r="C33">
-        <v>-0.05001094924047281</v>
+        <v>-0.008460432748455272</v>
       </c>
       <c r="D33">
-        <v>-0.03079239344029792</v>
+        <v>-0.09789090753881124</v>
       </c>
       <c r="E33">
-        <v>-0.07527149286673611</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>0.04599860993266461</v>
+      </c>
+      <c r="F33">
+        <v>-0.03867384420171665</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.09240097933584666</v>
+        <v>0.06784011649904681</v>
       </c>
       <c r="C34">
-        <v>-0.02785261740801791</v>
+        <v>-0.01170219384413868</v>
       </c>
       <c r="D34">
-        <v>-0.05151772183785241</v>
+        <v>-0.1042833390769662</v>
       </c>
       <c r="E34">
-        <v>-0.03955741902639994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.03519660727584074</v>
+      </c>
+      <c r="F34">
+        <v>-0.03524804738686123</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.01442968520453655</v>
+        <v>0.02468541632013615</v>
       </c>
       <c r="C35">
-        <v>-0.01013347065077356</v>
+        <v>-0.00232359377769742</v>
       </c>
       <c r="D35">
-        <v>0.00515043415123007</v>
+        <v>-0.01233699127657784</v>
       </c>
       <c r="E35">
-        <v>-0.004860856558303892</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>0.01072296593458253</v>
+      </c>
+      <c r="F35">
+        <v>-0.005951244021733728</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02453807607276854</v>
+        <v>0.02533323807918433</v>
       </c>
       <c r="C36">
-        <v>-0.01508465860553999</v>
+        <v>-0.007364199647951345</v>
       </c>
       <c r="D36">
-        <v>-0.0003182674698597809</v>
+        <v>-0.03891612753681711</v>
       </c>
       <c r="E36">
-        <v>-0.0008747887818137605</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>0.01689087364302249</v>
+      </c>
+      <c r="F36">
+        <v>-0.01335986906127937</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1434,93 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B38">
-        <v>-0.006324084437235838</v>
+        <v>0.001505032394986827</v>
       </c>
       <c r="C38">
-        <v>-0.0004972257809311323</v>
+        <v>-0.0002236232664024051</v>
       </c>
       <c r="D38">
-        <v>0.0001733892665854555</v>
+        <v>-0.0007282446072199606</v>
       </c>
       <c r="E38">
-        <v>-0.0001034238297909478</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>0.001152388989205671</v>
+      </c>
+      <c r="F38">
+        <v>0.001247476392750979</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1692413415190591</v>
+        <v>0.1071209783006618</v>
       </c>
       <c r="C39">
-        <v>-0.09455399788978669</v>
+        <v>-0.01665734393552148</v>
       </c>
       <c r="D39">
-        <v>-0.09505006363704263</v>
+        <v>-0.1536691086523674</v>
       </c>
       <c r="E39">
-        <v>-0.07115415557306094</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>0.06074653893177156</v>
+      </c>
+      <c r="F39">
+        <v>-0.02338045991559586</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.008741961652365841</v>
+        <v>0.03750270739522702</v>
       </c>
       <c r="C40">
-        <v>0.0005929612733206187</v>
+        <v>-0.007274951693623942</v>
       </c>
       <c r="D40">
-        <v>-0.009082606307573715</v>
+        <v>-0.03321300161637585</v>
       </c>
       <c r="E40">
-        <v>0.01756781180545091</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>0.002598980809265107</v>
+      </c>
+      <c r="F40">
+        <v>0.01364722803594447</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.01704978321732587</v>
+        <v>0.02650562010243205</v>
       </c>
       <c r="C41">
-        <v>0.02426692274970705</v>
+        <v>-0.006499108409247914</v>
       </c>
       <c r="D41">
-        <v>-0.01595823739970664</v>
+        <v>-0.01102667928208929</v>
       </c>
       <c r="E41">
-        <v>-0.005936839359960137</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.01211731978223628</v>
+      </c>
+      <c r="F41">
+        <v>0.00935481904847126</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1534,53 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.02711285075901216</v>
+        <v>0.0401587419981481</v>
       </c>
       <c r="C43">
-        <v>0.01740140864791042</v>
+        <v>-0.006597229805865685</v>
       </c>
       <c r="D43">
-        <v>-0.02928663904080272</v>
+        <v>-0.02048184538896511</v>
       </c>
       <c r="E43">
-        <v>-0.02654054481093365</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>0.02385735485836816</v>
+      </c>
+      <c r="F43">
+        <v>0.01416094927017315</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.1461219023249024</v>
+        <v>0.07645967050193259</v>
       </c>
       <c r="C44">
-        <v>-0.07173356716536272</v>
+        <v>-0.02122314823335185</v>
       </c>
       <c r="D44">
-        <v>-0.03908183471758857</v>
+        <v>-0.09755050012664615</v>
       </c>
       <c r="E44">
-        <v>-0.03320995800645518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>0.07376434385185822</v>
+      </c>
+      <c r="F44">
+        <v>-0.1718546516974727</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,197 +1594,233 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.01467083579979637</v>
+        <v>0.02358596800256272</v>
       </c>
       <c r="C46">
-        <v>0.01918633962095942</v>
+        <v>-0.003599178375813018</v>
       </c>
       <c r="D46">
-        <v>-0.0069845319971238</v>
+        <v>-0.01205598987771011</v>
       </c>
       <c r="E46">
-        <v>-0.03428927840975632</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.02241084122661341</v>
+      </c>
+      <c r="F46">
+        <v>-0.000626431922703221</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.04125700293067659</v>
+        <v>0.05119499083758009</v>
       </c>
       <c r="C47">
-        <v>0.005209068930906956</v>
+        <v>-0.003273392204385894</v>
       </c>
       <c r="D47">
-        <v>-0.01421548247181998</v>
+        <v>-0.0130774867303275</v>
       </c>
       <c r="E47">
-        <v>-0.001000225918853397</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.02250989283995999</v>
+      </c>
+      <c r="F47">
+        <v>0.04003839659928238</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04116722944240331</v>
+        <v>0.04767276940215507</v>
       </c>
       <c r="C48">
-        <v>-0.01653631521931294</v>
+        <v>-0.002606379989156383</v>
       </c>
       <c r="D48">
-        <v>0.0007491506077713546</v>
+        <v>-0.05093908202316263</v>
       </c>
       <c r="E48">
-        <v>-0.006653962228261995</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.005144708147143598</v>
+      </c>
+      <c r="F48">
+        <v>-0.005119562916817793</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.221667549820532</v>
+        <v>0.2023433526526598</v>
       </c>
       <c r="C49">
-        <v>0.04416202955946105</v>
+        <v>-0.01765303364290937</v>
       </c>
       <c r="D49">
-        <v>-0.04538781593820348</v>
+        <v>0.01100918377567521</v>
       </c>
       <c r="E49">
-        <v>0.007984740441001585</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
+        <v>0.03274246512572401</v>
+      </c>
+      <c r="F49">
+        <v>-0.02913018627434311</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.0401980701849386</v>
+        <v>0.04879849091029278</v>
       </c>
       <c r="C50">
-        <v>-0.008412083144214627</v>
+        <v>-0.01102082921475021</v>
       </c>
       <c r="D50">
-        <v>-0.03439463338934713</v>
+        <v>-0.02593787543765219</v>
       </c>
       <c r="E50">
-        <v>-0.01024643434413182</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.02933554604528998</v>
+      </c>
+      <c r="F50">
+        <v>-0.00683794671582975</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B51">
-        <v>-0.008369346150357965</v>
+        <v>0.002137907111114794</v>
       </c>
       <c r="C51">
-        <v>0.01226067218755738</v>
+        <v>-0.0005415822299046227</v>
       </c>
       <c r="D51">
-        <v>0.007772333699489544</v>
+        <v>0.002235751986126619</v>
       </c>
       <c r="E51">
-        <v>-0.01568634169294323</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-2.761578837701294e-05</v>
+      </c>
+      <c r="F51">
+        <v>-0.003861237769567779</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1349824062702756</v>
+        <v>0.1451775726464637</v>
       </c>
       <c r="C52">
-        <v>-0.07108642782339941</v>
+        <v>-0.01392708360730771</v>
       </c>
       <c r="D52">
-        <v>-0.01759496542059754</v>
+        <v>-0.04905519005993651</v>
       </c>
       <c r="E52">
-        <v>0.01098210132710443</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
+        <v>0.02425303435928836</v>
+      </c>
+      <c r="F52">
+        <v>-0.03872104012618918</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1494291964106632</v>
+        <v>0.173789804381066</v>
       </c>
       <c r="C53">
-        <v>0.003239594966025693</v>
+        <v>-0.01686842053944343</v>
       </c>
       <c r="D53">
-        <v>0.008785898050736284</v>
+        <v>-0.008280431610896888</v>
       </c>
       <c r="E53">
-        <v>0.02107523552420489</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03515484771656256</v>
+      </c>
+      <c r="F53">
+        <v>-0.06946059435585444</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.04797249395747638</v>
+        <v>0.02218776090349611</v>
       </c>
       <c r="C54">
-        <v>0.0005832940324129345</v>
+        <v>-0.01227488709470394</v>
       </c>
       <c r="D54">
-        <v>-0.01094460131896482</v>
+        <v>-0.03288115413671359</v>
       </c>
       <c r="E54">
-        <v>-0.010791238022665</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>0.01475096373531264</v>
+      </c>
+      <c r="F54">
+        <v>0.00342507489589714</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.08737506875677722</v>
+        <v>0.1144427441118793</v>
       </c>
       <c r="C55">
-        <v>-0.0233800591276513</v>
+        <v>-0.0154345438165533</v>
       </c>
       <c r="D55">
-        <v>0.01074131197942949</v>
+        <v>-0.01090898431727807</v>
       </c>
       <c r="E55">
-        <v>-0.03357452654412855</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.03125978302536975</v>
+      </c>
+      <c r="F55">
+        <v>-0.04472696957129573</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.1547610647671154</v>
+        <v>0.1775422414606301</v>
       </c>
       <c r="C56">
-        <v>-0.006478720766593663</v>
+        <v>-0.01431096235815823</v>
       </c>
       <c r="D56">
-        <v>-0.01429319587919745</v>
+        <v>-0.005622595079815019</v>
       </c>
       <c r="E56">
-        <v>-0.01158043110945776</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0409223662501849</v>
+      </c>
+      <c r="F56">
+        <v>-0.04757436569566194</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,758 +1834,893 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04552382824082128</v>
+        <v>0.04619008615002533</v>
       </c>
       <c r="C58">
-        <v>0.003651515339658971</v>
+        <v>-0.001261406506766089</v>
       </c>
       <c r="D58">
-        <v>-0.01389852010952401</v>
+        <v>-0.0683384029521375</v>
       </c>
       <c r="E58">
-        <v>0.01055835210727411</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>0.02493104578958016</v>
+      </c>
+      <c r="F58">
+        <v>0.04136853661233866</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1277365888612881</v>
+        <v>0.1718458317279337</v>
       </c>
       <c r="C59">
-        <v>0.2407075915180812</v>
+        <v>-0.01774766953615908</v>
       </c>
       <c r="D59">
-        <v>0.1554114853589083</v>
+        <v>0.2226002056959296</v>
       </c>
       <c r="E59">
-        <v>-0.05990912115662252</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.04774091092665217</v>
+      </c>
+      <c r="F59">
+        <v>0.03182105515468511</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2827925444921877</v>
+        <v>0.2349866683270164</v>
       </c>
       <c r="C60">
-        <v>-0.05117560196258935</v>
+        <v>0.004250300196818956</v>
       </c>
       <c r="D60">
-        <v>-0.02994705260579408</v>
+        <v>-0.04334752504827442</v>
       </c>
       <c r="E60">
-        <v>0.07289203161064775</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.01092613282799247</v>
+      </c>
+      <c r="F60">
+        <v>0.02339875326387518</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.1286736650272291</v>
+        <v>0.08313730153279986</v>
       </c>
       <c r="C61">
-        <v>-0.06424575335406768</v>
+        <v>-0.01269496029765122</v>
       </c>
       <c r="D61">
-        <v>-0.04356613696661844</v>
+        <v>-0.1160847283342728</v>
       </c>
       <c r="E61">
-        <v>-0.05178250967655434</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>0.04034612633472498</v>
+      </c>
+      <c r="F61">
+        <v>-0.01020204942371482</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1627552035186231</v>
+        <v>0.1699112833301819</v>
       </c>
       <c r="C62">
-        <v>-0.01122405654439669</v>
+        <v>-0.01788307191877057</v>
       </c>
       <c r="D62">
-        <v>-0.01196818927949376</v>
+        <v>-0.01026388563092269</v>
       </c>
       <c r="E62">
-        <v>-0.0003393360587715452</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5">
+        <v>0.03710275865844465</v>
+      </c>
+      <c r="F62">
+        <v>-0.02942679835034036</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04918129268499878</v>
+        <v>0.04309614394961452</v>
       </c>
       <c r="C63">
-        <v>-0.02002525880653242</v>
+        <v>-0.002568845432896538</v>
       </c>
       <c r="D63">
-        <v>-0.007544683380246814</v>
+        <v>-0.05631948516829402</v>
       </c>
       <c r="E63">
-        <v>-0.02700535112958223</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.0209620625295315</v>
+      </c>
+      <c r="F63">
+        <v>-0.007307957978831072</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.09738518320136347</v>
+        <v>0.1108241294270781</v>
       </c>
       <c r="C64">
-        <v>-0.01393122412123307</v>
+        <v>-0.01112611920330015</v>
       </c>
       <c r="D64">
-        <v>-0.02184129378811453</v>
+        <v>-0.04137803038797824</v>
       </c>
       <c r="E64">
-        <v>-0.006909368770399489</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.02011031972331428</v>
+      </c>
+      <c r="F64">
+        <v>-0.02743035073757322</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1179306247473986</v>
+        <v>0.1473376903770323</v>
       </c>
       <c r="C65">
-        <v>-0.005750598630759324</v>
+        <v>-0.03129592307367653</v>
       </c>
       <c r="D65">
-        <v>0.009841412413937442</v>
+        <v>0.04209672981237701</v>
       </c>
       <c r="E65">
-        <v>0.008866443757694529</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>0.001717749826124894</v>
+      </c>
+      <c r="F65">
+        <v>-0.04623000667679897</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1905578633393457</v>
+        <v>0.1276525004872695</v>
       </c>
       <c r="C66">
-        <v>-0.08966967227305501</v>
+        <v>-0.01446691559036932</v>
       </c>
       <c r="D66">
-        <v>-0.1045942978040426</v>
+        <v>-0.1432111050729417</v>
       </c>
       <c r="E66">
-        <v>-0.07519246320928019</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>0.0680548719513917</v>
+      </c>
+      <c r="F66">
+        <v>-0.02802327616923682</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.07696093077346434</v>
+        <v>0.06350062003005787</v>
       </c>
       <c r="C67">
-        <v>-0.03117313427498128</v>
+        <v>-0.002827398567449357</v>
       </c>
       <c r="D67">
-        <v>0.0008880939504023941</v>
+        <v>-0.05673246797117096</v>
       </c>
       <c r="E67">
-        <v>-0.08168887982976183</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.01803212261637347</v>
+      </c>
+      <c r="F67">
+        <v>0.0409705728986542</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.05930937839462326</v>
+        <v>0.1172038270556332</v>
       </c>
       <c r="C68">
-        <v>0.2259151571612753</v>
+        <v>-0.02755021396017449</v>
       </c>
       <c r="D68">
-        <v>0.1522839514962433</v>
+        <v>0.2608903588769255</v>
       </c>
       <c r="E68">
-        <v>-0.03695115058983896</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.08549427818560371</v>
+      </c>
+      <c r="F68">
+        <v>-0.01917723414646742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.03400382904022852</v>
+        <v>0.03913260765196216</v>
       </c>
       <c r="C69">
-        <v>-0.002015285308855595</v>
+        <v>-0.0008695038357664916</v>
       </c>
       <c r="D69">
-        <v>0.01509233564423021</v>
+        <v>-0.008073032035853541</v>
       </c>
       <c r="E69">
-        <v>-0.02488960662756004</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02361162075022648</v>
+      </c>
+      <c r="F69">
+        <v>0.00626294708547682</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.02656170041215062</v>
+        <v>0.06247710924998424</v>
       </c>
       <c r="C70">
-        <v>0.001328230785942153</v>
+        <v>0.02868876174983526</v>
       </c>
       <c r="D70">
-        <v>0.02847215385267464</v>
+        <v>-0.02947590384290409</v>
       </c>
       <c r="E70">
-        <v>-0.03786918898697657</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5">
+        <v>-0.0482652028746029</v>
+      </c>
+      <c r="F70">
+        <v>0.2340375187351014</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.06781659104362583</v>
+        <v>0.1364922844541747</v>
       </c>
       <c r="C71">
-        <v>0.2444411874444643</v>
+        <v>-0.03205086888858843</v>
       </c>
       <c r="D71">
-        <v>0.1702601832771845</v>
+        <v>0.2749383608055151</v>
       </c>
       <c r="E71">
-        <v>-0.04900986487973856</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.09528051477543582</v>
+      </c>
+      <c r="F71">
+        <v>-0.02407761208469197</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1330219614460698</v>
+        <v>0.1416486695848753</v>
       </c>
       <c r="C72">
-        <v>0.03553010362458408</v>
+        <v>-0.02499784084440646</v>
       </c>
       <c r="D72">
-        <v>-0.002222583365458895</v>
+        <v>-0.001289644536803918</v>
       </c>
       <c r="E72">
-        <v>-0.02092277506487643</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.04281286406855218</v>
+      </c>
+      <c r="F72">
+        <v>-0.03019127034764952</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2184931039361343</v>
+        <v>0.2014693898073038</v>
       </c>
       <c r="C73">
-        <v>0.03568375447488236</v>
+        <v>-0.01184758937133785</v>
       </c>
       <c r="D73">
-        <v>-0.002098755288111009</v>
+        <v>-0.01485758944032504</v>
       </c>
       <c r="E73">
-        <v>-0.04495582337850221</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>0.065583408477907</v>
+      </c>
+      <c r="F73">
+        <v>-0.0252851050038753</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.1104897314390506</v>
+        <v>0.094469167757166</v>
       </c>
       <c r="C74">
-        <v>-0.002640230843881716</v>
+        <v>-0.01220460098879642</v>
       </c>
       <c r="D74">
-        <v>-0.03194613858381706</v>
+        <v>-0.01963796975810956</v>
       </c>
       <c r="E74">
-        <v>-0.01559548105304944</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.04861253034492096</v>
+      </c>
+      <c r="F74">
+        <v>-0.05088280532243266</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.12922658145031</v>
+        <v>0.1289892022678941</v>
       </c>
       <c r="C75">
-        <v>-0.01677663308531227</v>
+        <v>-0.02660140356594452</v>
       </c>
       <c r="D75">
-        <v>-0.03957026376679803</v>
+        <v>-0.03283031333426926</v>
       </c>
       <c r="E75">
-        <v>-0.005675228714855349</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.06074855997844673</v>
+      </c>
+      <c r="F75">
+        <v>-0.01448719174185458</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B76">
-        <v>-0.01266504242025267</v>
+        <v>0.002890264761477285</v>
       </c>
       <c r="C76">
-        <v>0.01200348233774968</v>
+        <v>-0.0007161248761738891</v>
       </c>
       <c r="D76">
-        <v>0.007394635177650788</v>
+        <v>0.002066307353740721</v>
       </c>
       <c r="E76">
-        <v>-0.01182342223313522</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.0004503245001374199</v>
+      </c>
+      <c r="F76">
+        <v>-0.003731243740350232</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.09241127586827481</v>
+        <v>0.08007625692280552</v>
       </c>
       <c r="C77">
-        <v>-0.08589226092843374</v>
+        <v>-0.008717012157780014</v>
       </c>
       <c r="D77">
-        <v>-0.06907695066842012</v>
+        <v>-0.1187395006733482</v>
       </c>
       <c r="E77">
-        <v>0.018621551152053</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.04002065553086514</v>
+      </c>
+      <c r="F77">
+        <v>-0.03280949246095258</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.1004972206059556</v>
+        <v>0.1031396434517529</v>
       </c>
       <c r="C78">
-        <v>0.03355329708505072</v>
+        <v>-0.03973328866435265</v>
       </c>
       <c r="D78">
-        <v>-0.126730869281699</v>
+        <v>-0.1161358716614556</v>
       </c>
       <c r="E78">
-        <v>-0.1888857853922552</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>0.07981011401463073</v>
+      </c>
+      <c r="F78">
+        <v>-0.05654931478320422</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1389359026316901</v>
+        <v>0.164132011426211</v>
       </c>
       <c r="C79">
-        <v>0.0007495197126014287</v>
+        <v>-0.02059965521847055</v>
       </c>
       <c r="D79">
-        <v>-0.0526007522377214</v>
+        <v>-0.01915547044937146</v>
       </c>
       <c r="E79">
-        <v>0.01166546406027821</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.05006493201905921</v>
+      </c>
+      <c r="F79">
+        <v>-0.006039801268512968</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08677711261223429</v>
+        <v>0.08099528252865124</v>
       </c>
       <c r="C80">
-        <v>-0.06314317269979422</v>
+        <v>0.000818317855995166</v>
       </c>
       <c r="D80">
-        <v>-0.02071928932958572</v>
+        <v>-0.05820418869084944</v>
       </c>
       <c r="E80">
-        <v>-0.05628440353955005</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03575598701211464</v>
+      </c>
+      <c r="F80">
+        <v>0.02779649400952643</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1482485522520847</v>
+        <v>0.1234237725784277</v>
       </c>
       <c r="C81">
-        <v>-0.02511801263055461</v>
+        <v>-0.03040590162919214</v>
       </c>
       <c r="D81">
-        <v>-0.05435695341002739</v>
+        <v>-0.01686805121227979</v>
       </c>
       <c r="E81">
-        <v>-0.0226149059364736</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.06044923109189149</v>
+      </c>
+      <c r="F81">
+        <v>-0.01050620426085262</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.1716747253578469</v>
+        <v>0.1640705784076527</v>
       </c>
       <c r="C82">
-        <v>-0.03672976096523903</v>
+        <v>-0.02263570954509989</v>
       </c>
       <c r="D82">
-        <v>-0.0207046544110247</v>
+        <v>-0.008878765844677301</v>
       </c>
       <c r="E82">
-        <v>-0.01998161307306651</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.0338169563764945</v>
+      </c>
+      <c r="F82">
+        <v>-0.07220797145410802</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.07686481387190985</v>
+        <v>0.06192745989058906</v>
       </c>
       <c r="C83">
-        <v>-0.01773856702305632</v>
+        <v>-0.003130987935374312</v>
       </c>
       <c r="D83">
-        <v>-0.004428208460912329</v>
+        <v>-0.04948359784972074</v>
       </c>
       <c r="E83">
-        <v>0.07202420136610385</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.005610866667770043</v>
+      </c>
+      <c r="F83">
+        <v>0.04017251704033024</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.07825938689908522</v>
+        <v>0.05863317163575941</v>
       </c>
       <c r="C84">
-        <v>-0.02187971627824967</v>
+        <v>-0.01074924212708807</v>
       </c>
       <c r="D84">
-        <v>-0.007555134150513208</v>
+        <v>-0.06642666712458641</v>
       </c>
       <c r="E84">
-        <v>0.003299694667724538</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>0.005362280720984706</v>
+      </c>
+      <c r="F84">
+        <v>-0.00718939882171489</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1242732831132874</v>
+        <v>0.1385522152503762</v>
       </c>
       <c r="C85">
-        <v>0.002444670204116478</v>
+        <v>-0.02635187481494442</v>
       </c>
       <c r="D85">
-        <v>-0.01626320814460006</v>
+        <v>-0.01257012492082297</v>
       </c>
       <c r="E85">
-        <v>-0.0005991253100275294</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.04110948295928438</v>
+      </c>
+      <c r="F85">
+        <v>-0.04493792733056826</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1228666556483088</v>
+        <v>0.09513444965986012</v>
       </c>
       <c r="C86">
-        <v>0.2072563605833369</v>
+        <v>0.005434373859706816</v>
       </c>
       <c r="D86">
-        <v>-0.2346687094102496</v>
+        <v>-0.03527400515987015</v>
       </c>
       <c r="E86">
-        <v>0.892098000572337</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.1643146448276015</v>
+      </c>
+      <c r="F86">
+        <v>0.8989216942435955</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.1210443470593579</v>
+        <v>0.09520182513519969</v>
       </c>
       <c r="C87">
-        <v>-0.1025637036050496</v>
+        <v>-0.02197530823754285</v>
       </c>
       <c r="D87">
-        <v>0.01544112448329946</v>
+        <v>-0.09289616512484435</v>
       </c>
       <c r="E87">
-        <v>0.008504168940527638</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.05391315075474108</v>
+      </c>
+      <c r="F87">
+        <v>-0.06731731802027444</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.04955688947815164</v>
+        <v>0.06097384024544149</v>
       </c>
       <c r="C88">
-        <v>-0.01280856103583417</v>
+        <v>-0.002359440773878789</v>
       </c>
       <c r="D88">
-        <v>-0.03205849325280319</v>
+        <v>-0.05092882696952968</v>
       </c>
       <c r="E88">
-        <v>-0.03886417983252511</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.02610081650414855</v>
+      </c>
+      <c r="F88">
+        <v>-0.008930245161724021</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1095509394160847</v>
+        <v>0.1349464055174647</v>
       </c>
       <c r="C89">
-        <v>0.3096773165591466</v>
+        <v>-0.009961681455241447</v>
       </c>
       <c r="D89">
-        <v>0.2076535194041602</v>
+        <v>0.253279536589501</v>
       </c>
       <c r="E89">
-        <v>-0.03136849308118196</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>-0.08951578779722184</v>
+      </c>
+      <c r="F89">
+        <v>-0.005958556815615422</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.07808807899190168</v>
+        <v>0.1483885808303769</v>
       </c>
       <c r="C90">
-        <v>0.2527225895878072</v>
+        <v>-0.02769569271696994</v>
       </c>
       <c r="D90">
-        <v>0.1712555415898803</v>
+        <v>0.2663893643466204</v>
       </c>
       <c r="E90">
-        <v>-0.0340862803742184</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>-0.1095136850607124</v>
+      </c>
+      <c r="F90">
+        <v>-0.00952658275115003</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.09076878230057758</v>
+        <v>0.1199800382530759</v>
       </c>
       <c r="C91">
-        <v>-0.004840754684562259</v>
+        <v>-0.01709565823058641</v>
       </c>
       <c r="D91">
-        <v>-0.02638431628918885</v>
+        <v>0.0102788479773967</v>
       </c>
       <c r="E91">
-        <v>0.008355996739643094</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.05764789202707115</v>
+      </c>
+      <c r="F91">
+        <v>0.01175736613852042</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.09221930951272525</v>
+        <v>0.1492758787927841</v>
       </c>
       <c r="C92">
-        <v>0.2695601645557603</v>
+        <v>-0.01920615689917306</v>
       </c>
       <c r="D92">
-        <v>0.2032014144718232</v>
+        <v>0.2900016447086717</v>
       </c>
       <c r="E92">
-        <v>-0.0162713573307394</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>-0.1031361771075505</v>
+      </c>
+      <c r="F92">
+        <v>-0.001422035432734986</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.07513639388384313</v>
+        <v>0.1513710925935305</v>
       </c>
       <c r="C93">
-        <v>0.2802315109599559</v>
+        <v>-0.02382934273987749</v>
       </c>
       <c r="D93">
-        <v>0.1880542542810497</v>
+        <v>0.2658374244561869</v>
       </c>
       <c r="E93">
-        <v>-0.02731263970930006</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.07646549472234417</v>
+      </c>
+      <c r="F93">
+        <v>-0.009955720009624525</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1538104722245614</v>
+        <v>0.1320246903181333</v>
       </c>
       <c r="C94">
-        <v>-0.01388087760288716</v>
+        <v>-0.02372274455298296</v>
       </c>
       <c r="D94">
-        <v>-0.03821384569546566</v>
+        <v>-0.04407657790985261</v>
       </c>
       <c r="E94">
-        <v>-0.06080270882734827</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06098075059289861</v>
+      </c>
+      <c r="F94">
+        <v>-0.03294987045936669</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.125720885849169</v>
+        <v>0.1260905216755452</v>
       </c>
       <c r="C95">
-        <v>-0.0314768339617574</v>
+        <v>-0.004695770258363677</v>
       </c>
       <c r="D95">
-        <v>-0.04739673188781598</v>
+        <v>-0.09248869729152533</v>
       </c>
       <c r="E95">
-        <v>-0.04209388334486101</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.04620430772861489</v>
+      </c>
+      <c r="F95">
+        <v>0.01029093422487983</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>0.01435519501209393</v>
+        <v>0.09952247712232978</v>
       </c>
       <c r="C96">
-        <v>-0.00104718191656815</v>
+        <v>0.9887382512472647</v>
       </c>
       <c r="D96">
-        <v>-0.00199051313620208</v>
+        <v>0.03576464602002732</v>
       </c>
       <c r="E96">
-        <v>-0.001024225372796636</v>
-      </c>
-    </row>
-    <row r="97" spans="1:5">
+        <v>0.05792694472804485</v>
+      </c>
+      <c r="F96">
+        <v>-0.04184476815039532</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.176509353148356</v>
+        <v>0.1899697130260898</v>
       </c>
       <c r="C97">
-        <v>0.03758498302617331</v>
+        <v>0.009345116667161264</v>
       </c>
       <c r="D97">
-        <v>-0.05336827363948355</v>
+        <v>0.01780263062947856</v>
       </c>
       <c r="E97">
-        <v>-0.04085030052707621</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>0.008229814593565234</v>
+      </c>
+      <c r="F97">
+        <v>0.09783615104938186</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.235037120264458</v>
+        <v>0.2057979120289114</v>
       </c>
       <c r="C98">
-        <v>0.03012243977352979</v>
+        <v>-0.007318906525516428</v>
       </c>
       <c r="D98">
-        <v>0.09101171516688807</v>
+        <v>-0.008629873588432842</v>
       </c>
       <c r="E98">
-        <v>0.09352334309130968</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.09541671632045176</v>
+      </c>
+      <c r="F98">
+        <v>0.09734909663340938</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05079511494328072</v>
+        <v>0.05545383047401582</v>
       </c>
       <c r="C99">
-        <v>0.01051431437819223</v>
+        <v>0.004304727531631768</v>
       </c>
       <c r="D99">
-        <v>-0.01493187157950644</v>
+        <v>-0.03712825338521174</v>
       </c>
       <c r="E99">
-        <v>-0.04413064111751857</v>
-      </c>
-    </row>
-    <row r="100" spans="1:5">
+        <v>0.0241300834048755</v>
+      </c>
+      <c r="F99">
+        <v>-4.351289450507448e-06</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1253189709820678</v>
+        <v>0.124094580375711</v>
       </c>
       <c r="C100">
-        <v>-0.526209763314937</v>
+        <v>0.05201135880210087</v>
       </c>
       <c r="D100">
-        <v>0.7536070280714482</v>
+        <v>-0.3452500796567053</v>
       </c>
       <c r="E100">
-        <v>0.2491804964597933</v>
-      </c>
-    </row>
-    <row r="101" spans="1:5">
+        <v>-0.8937917532991344</v>
+      </c>
+      <c r="F100">
+        <v>0.08830460784106259</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02855649147172462</v>
+        <v>0.02697621118267331</v>
       </c>
       <c r="C101">
-        <v>-0.007890101201778599</v>
+        <v>-0.008381109893725753</v>
       </c>
       <c r="D101">
-        <v>0.003356630293621902</v>
+        <v>-0.03105473525330773</v>
       </c>
       <c r="E101">
-        <v>-0.007766666256820503</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.01085493290597762</v>
+      </c>
+      <c r="F101">
+        <v>0.01365442560324432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2428,10 +2734,13 @@
       <c r="E102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +2754,13 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +2772,9 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
